--- a/Code/Results/Cases/Case_5_234/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_234/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9444821366138854</v>
+        <v>1.092944669800971</v>
       </c>
       <c r="C2">
-        <v>0.07977644870226897</v>
+        <v>0.0402866848161807</v>
       </c>
       <c r="D2">
-        <v>0.4735906745769256</v>
+        <v>0.3469786856266808</v>
       </c>
       <c r="E2">
-        <v>0.05152563420926803</v>
+        <v>0.08423663855832686</v>
       </c>
       <c r="F2">
-        <v>7.069974470791237</v>
+        <v>4.953339856236369</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7237197111202818</v>
+        <v>0.6178926860127945</v>
       </c>
       <c r="L2">
-        <v>0.1451794468709622</v>
+        <v>0.1990288344996003</v>
       </c>
       <c r="M2">
-        <v>0.2064220476167939</v>
+        <v>0.2564379338706004</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8334208157012029</v>
+        <v>1.079093574167189</v>
       </c>
       <c r="C3">
-        <v>0.07216189710591792</v>
+        <v>0.03812766800084333</v>
       </c>
       <c r="D3">
-        <v>0.4358096669653833</v>
+        <v>0.3343197433335092</v>
       </c>
       <c r="E3">
-        <v>0.04892589515790569</v>
+        <v>0.08360673564671295</v>
       </c>
       <c r="F3">
-        <v>6.364921411107673</v>
+        <v>4.74137407832751</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6262660996029865</v>
+        <v>0.6045266538105096</v>
       </c>
       <c r="L3">
-        <v>0.1322318740272834</v>
+        <v>0.196850744342612</v>
       </c>
       <c r="M3">
-        <v>0.1839951897434275</v>
+        <v>0.2534131723321948</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7674395442428761</v>
+        <v>1.071552234929982</v>
       </c>
       <c r="C4">
-        <v>0.06757070941901944</v>
+        <v>0.03677288371079257</v>
       </c>
       <c r="D4">
-        <v>0.4128475080814269</v>
+        <v>0.32645662235484</v>
       </c>
       <c r="E4">
-        <v>0.04736582689844937</v>
+        <v>0.08323112675766886</v>
       </c>
       <c r="F4">
-        <v>5.938434064756137</v>
+        <v>4.611407365189393</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5682923012489454</v>
+        <v>0.5970327252603767</v>
       </c>
       <c r="L4">
-        <v>0.1245104508774446</v>
+        <v>0.1956125514581331</v>
       </c>
       <c r="M4">
-        <v>0.1706601372100565</v>
+        <v>0.2517483755631105</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7410533584454413</v>
+        <v>1.068720938830609</v>
       </c>
       <c r="C5">
-        <v>0.06571559724797282</v>
+        <v>0.03621330098894049</v>
       </c>
       <c r="D5">
-        <v>0.4035359465181614</v>
+        <v>0.3232291781499015</v>
       </c>
       <c r="E5">
-        <v>0.04673830525241307</v>
+        <v>0.08308086286111305</v>
       </c>
       <c r="F5">
-        <v>5.76601475555168</v>
+        <v>4.558486500939694</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5450846460606158</v>
+        <v>0.5941575649632682</v>
       </c>
       <c r="L5">
-        <v>0.1214162888901242</v>
+        <v>0.1951329034367504</v>
       </c>
       <c r="M5">
-        <v>0.1653251685386437</v>
+        <v>0.251118292323973</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7367007567585233</v>
+        <v>1.068265401658692</v>
       </c>
       <c r="C6">
-        <v>0.06540836690813023</v>
+        <v>0.03611992494107596</v>
       </c>
       <c r="D6">
-        <v>0.4019921541428744</v>
+        <v>0.3226918529031906</v>
       </c>
       <c r="E6">
-        <v>0.04663457778582902</v>
+        <v>0.08305608061396974</v>
       </c>
       <c r="F6">
-        <v>5.737461331113536</v>
+        <v>4.549701432159594</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5412548087082314</v>
+        <v>0.5936909216756447</v>
       </c>
       <c r="L6">
-        <v>0.1209055290922976</v>
+        <v>0.1950547634399413</v>
       </c>
       <c r="M6">
-        <v>0.1644450076308495</v>
+        <v>0.251016585379805</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7670817277893036</v>
+        <v>1.071513072278407</v>
       </c>
       <c r="C7">
-        <v>0.06754563331082863</v>
+        <v>0.03676536756045223</v>
       </c>
       <c r="D7">
-        <v>0.4127217611467273</v>
+        <v>0.3264131902131879</v>
       </c>
       <c r="E7">
-        <v>0.04735733175530576</v>
+        <v>0.08322908891594061</v>
       </c>
       <c r="F7">
-        <v>5.93610347743396</v>
+        <v>4.610693492545323</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5679776903852769</v>
+        <v>0.5969932271548117</v>
       </c>
       <c r="L7">
-        <v>0.1244685162310262</v>
+        <v>0.1956059818456026</v>
       </c>
       <c r="M7">
-        <v>0.1705877993217477</v>
+        <v>0.2517396823996449</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9056951906870268</v>
+        <v>1.087968648099263</v>
       </c>
       <c r="C8">
-        <v>0.07713011046283214</v>
+        <v>0.0395482009699748</v>
       </c>
       <c r="D8">
-        <v>0.4605064058550283</v>
+        <v>0.3426324133937584</v>
       </c>
       <c r="E8">
-        <v>0.05062118176260455</v>
+        <v>0.08401712970679576</v>
       </c>
       <c r="F8">
-        <v>6.825391632693226</v>
+        <v>4.880214031325607</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6896986511136021</v>
+        <v>0.6131357622472962</v>
       </c>
       <c r="L8">
-        <v>0.1406645280845424</v>
+        <v>0.1982572402477984</v>
       </c>
       <c r="M8">
-        <v>0.1985925075369259</v>
+        <v>0.2553550265628353</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.197780448753974</v>
+        <v>1.127902360285674</v>
       </c>
       <c r="C9">
-        <v>0.09686286673312594</v>
+        <v>0.04478189957499268</v>
       </c>
       <c r="D9">
-        <v>0.5567553855562437</v>
+        <v>0.3737398177966611</v>
       </c>
       <c r="E9">
-        <v>0.05735267346228667</v>
+        <v>0.08565131579503671</v>
       </c>
       <c r="F9">
-        <v>8.63202487250885</v>
+        <v>5.41038330910456</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.945758641392672</v>
+        <v>0.6504773667712129</v>
       </c>
       <c r="L9">
-        <v>0.1744907864398968</v>
+        <v>0.2042441855646331</v>
       </c>
       <c r="M9">
-        <v>0.257476145149802</v>
+        <v>0.2639746959276508</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.429006793989487</v>
+        <v>1.161949957525053</v>
       </c>
       <c r="C10">
-        <v>0.1123600482724143</v>
+        <v>0.04850182590726604</v>
       </c>
       <c r="D10">
-        <v>0.6300717533871705</v>
+        <v>0.3961972016212201</v>
       </c>
       <c r="E10">
-        <v>0.06256890031003692</v>
+        <v>0.08690674287358391</v>
       </c>
       <c r="F10">
-        <v>10.01608193629258</v>
+        <v>5.80121779326754</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.148537242016118</v>
+        <v>0.6814253061023408</v>
       </c>
       <c r="L10">
-        <v>0.2009985038768463</v>
+        <v>0.2091253294511972</v>
       </c>
       <c r="M10">
-        <v>0.3039622879339845</v>
+        <v>0.2712461558002559</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.538918830103057</v>
+        <v>1.178469861633317</v>
       </c>
       <c r="C11">
-        <v>0.1197400942152598</v>
+        <v>0.05016929332256126</v>
       </c>
       <c r="D11">
-        <v>0.6642602932646469</v>
+        <v>0.4063336508876887</v>
       </c>
       <c r="E11">
-        <v>0.06501831614903608</v>
+        <v>0.08748991550168483</v>
       </c>
       <c r="F11">
-        <v>10.6627946801911</v>
+        <v>5.979376596327995</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.245026103321692</v>
+        <v>0.6962777568209333</v>
       </c>
       <c r="L11">
-        <v>0.2135189503078294</v>
+        <v>0.2114512260868509</v>
       </c>
       <c r="M11">
-        <v>0.326018849406438</v>
+        <v>0.2747593367263761</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.581326690840285</v>
+        <v>1.184874437751745</v>
       </c>
       <c r="C12">
-        <v>0.1225933491890956</v>
+        <v>0.05079735209854874</v>
       </c>
       <c r="D12">
-        <v>0.6773527804577668</v>
+        <v>0.4101610952700412</v>
       </c>
       <c r="E12">
-        <v>0.06595854144300617</v>
+        <v>0.08771249296683337</v>
       </c>
       <c r="F12">
-        <v>10.91060244924995</v>
+        <v>6.046898424744995</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.282276992567915</v>
+        <v>0.702014095431025</v>
       </c>
       <c r="L12">
-        <v>0.2183363218464223</v>
+        <v>0.2123471769291285</v>
       </c>
       <c r="M12">
-        <v>0.3345220682190728</v>
+        <v>0.27611931096353</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.572156554125911</v>
+        <v>1.183488469195026</v>
       </c>
       <c r="C13">
-        <v>0.1219760490570039</v>
+        <v>0.05066223556759297</v>
       </c>
       <c r="D13">
-        <v>0.6745261381796297</v>
+        <v>0.4093372694445065</v>
       </c>
       <c r="E13">
-        <v>0.06575545382124304</v>
+        <v>0.08766447931481025</v>
       </c>
       <c r="F13">
-        <v>10.85709525502125</v>
+        <v>6.032353788764965</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.274220865789772</v>
+        <v>0.7007736776196225</v>
       </c>
       <c r="L13">
-        <v>0.2172952592481039</v>
+        <v>0.2121535421919418</v>
       </c>
       <c r="M13">
-        <v>0.3326836887775713</v>
+        <v>0.2758250980274966</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.542391321019124</v>
+        <v>1.178993783802525</v>
       </c>
       <c r="C14">
-        <v>0.1199735894217113</v>
+        <v>0.0502210306777755</v>
       </c>
       <c r="D14">
-        <v>0.6653343339496587</v>
+        <v>0.4066487552218518</v>
       </c>
       <c r="E14">
-        <v>0.06509540441992456</v>
+        <v>0.08750819211957861</v>
       </c>
       <c r="F14">
-        <v>10.68312081122065</v>
+        <v>5.98493049151233</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.248075835819435</v>
+        <v>0.6967474392267832</v>
       </c>
       <c r="L14">
-        <v>0.2139136919301734</v>
+        <v>0.2115246320540081</v>
       </c>
       <c r="M14">
-        <v>0.3267152658926236</v>
+        <v>0.2748706287570002</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.524265115315558</v>
+        <v>1.176260059253792</v>
       </c>
       <c r="C15">
-        <v>0.1187550131793316</v>
+        <v>0.04995034589655489</v>
       </c>
       <c r="D15">
-        <v>0.6597239269599982</v>
+        <v>0.4050005416535214</v>
       </c>
       <c r="E15">
-        <v>0.06469281062927124</v>
+        <v>0.08741268884481102</v>
       </c>
       <c r="F15">
-        <v>10.57695009145641</v>
+        <v>5.955889898372504</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.232157342139232</v>
+        <v>0.6942958644280566</v>
       </c>
       <c r="L15">
-        <v>0.2118526116624082</v>
+        <v>0.2111413845585872</v>
       </c>
       <c r="M15">
-        <v>0.323079724895095</v>
+        <v>0.2742898471099053</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.421927699592317</v>
+        <v>1.160891143136894</v>
       </c>
       <c r="C16">
-        <v>0.1118853028489113</v>
+        <v>0.04839237069239033</v>
       </c>
       <c r="D16">
-        <v>0.6278564104471798</v>
+        <v>0.3955331969745259</v>
       </c>
       <c r="E16">
-        <v>0.06241050389844816</v>
+        <v>0.08686887466292248</v>
       </c>
       <c r="F16">
-        <v>9.974199192907918</v>
+        <v>5.789582431684863</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.142325298964437</v>
+        <v>0.6804703016709368</v>
       </c>
       <c r="L16">
-        <v>0.2001903615655607</v>
+        <v>0.2089754502136429</v>
       </c>
       <c r="M16">
-        <v>0.30254080046263</v>
+        <v>0.2710207001351534</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.360429113468058</v>
+        <v>1.15172736333048</v>
       </c>
       <c r="C17">
-        <v>0.1077629483069629</v>
+        <v>0.04743039547035721</v>
       </c>
       <c r="D17">
-        <v>0.6085382753491331</v>
+        <v>0.3897052218728732</v>
       </c>
       <c r="E17">
-        <v>0.06103111233224112</v>
+        <v>0.08653835899190376</v>
       </c>
       <c r="F17">
-        <v>9.609114571019091</v>
+        <v>5.687655025184938</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.08837172418302</v>
+        <v>0.6721875383947236</v>
       </c>
       <c r="L17">
-        <v>0.193160796936823</v>
+        <v>0.2076737405945295</v>
       </c>
       <c r="M17">
-        <v>0.2901872969739685</v>
+        <v>0.2690678362850321</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.325494390960699</v>
+        <v>1.146553655252035</v>
       </c>
       <c r="C18">
-        <v>0.1054222151418145</v>
+        <v>0.04687475252167417</v>
       </c>
       <c r="D18">
-        <v>0.5975040131876028</v>
+        <v>0.3863456135825771</v>
       </c>
       <c r="E18">
-        <v>0.06024481352676148</v>
+        <v>0.08634939103524708</v>
       </c>
       <c r="F18">
-        <v>9.400706575926677</v>
+        <v>5.629063288590061</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.057731605319191</v>
+        <v>0.6674963274999186</v>
       </c>
       <c r="L18">
-        <v>0.1891604073305047</v>
+        <v>0.2069349547281831</v>
       </c>
       <c r="M18">
-        <v>0.2831661740988167</v>
+        <v>0.2679639249529586</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.313738230905642</v>
+        <v>1.144818580395906</v>
       </c>
       <c r="C19">
-        <v>0.1046345814050724</v>
+        <v>0.04668621386225169</v>
       </c>
       <c r="D19">
-        <v>0.5937804983662005</v>
+        <v>0.3852068049269093</v>
       </c>
       <c r="E19">
-        <v>0.05997975636092434</v>
+        <v>0.0862856046287046</v>
       </c>
       <c r="F19">
-        <v>9.330401544023658</v>
+        <v>5.609230879382153</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.047421913845739</v>
+        <v>0.6659204483466965</v>
       </c>
       <c r="L19">
-        <v>0.1878130241047984</v>
+        <v>0.2066865181756441</v>
       </c>
       <c r="M19">
-        <v>0.2808028504588478</v>
+        <v>0.2675934761639311</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.366929720115763</v>
+        <v>1.152692814740817</v>
       </c>
       <c r="C20">
-        <v>0.1081985651185562</v>
+        <v>0.04753304025356897</v>
       </c>
       <c r="D20">
-        <v>0.6105865767912348</v>
+        <v>0.3903263940486568</v>
       </c>
       <c r="E20">
-        <v>0.06117720556811967</v>
+        <v>0.08657342533820866</v>
       </c>
       <c r="F20">
-        <v>9.647811933829502</v>
+        <v>5.698501799924259</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.094073849812446</v>
+        <v>0.6730617113647099</v>
       </c>
       <c r="L20">
-        <v>0.193904606900503</v>
+        <v>0.2078112826488052</v>
       </c>
       <c r="M20">
-        <v>0.2914934884951563</v>
+        <v>0.2692737214271261</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.551111818410732</v>
+        <v>1.180309937950057</v>
       </c>
       <c r="C21">
-        <v>0.1205600734308305</v>
+        <v>0.05035071337431418</v>
       </c>
       <c r="D21">
-        <v>0.668030004552179</v>
+        <v>0.4074387323855149</v>
       </c>
       <c r="E21">
-        <v>0.06528891818392069</v>
+        <v>0.08755405010843731</v>
       </c>
       <c r="F21">
-        <v>10.7341383916098</v>
+        <v>5.998858283204527</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.255735035908657</v>
+        <v>0.6979269964947719</v>
       </c>
       <c r="L21">
-        <v>0.214904789655634</v>
+        <v>0.2117089459261621</v>
       </c>
       <c r="M21">
-        <v>0.3284640681590361</v>
+        <v>0.2751501752986059</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.676130945316515</v>
+        <v>1.199227172909929</v>
       </c>
       <c r="C22">
-        <v>0.1289869697858066</v>
+        <v>0.05217264008339839</v>
       </c>
       <c r="D22">
-        <v>0.7064382682387418</v>
+        <v>0.4185586659220064</v>
       </c>
       <c r="E22">
-        <v>0.0680510419188991</v>
+        <v>0.0882051058079476</v>
       </c>
       <c r="F22">
-        <v>11.46134250869358</v>
+        <v>6.195492625782776</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.365602263954798</v>
+        <v>0.7148312888898829</v>
       </c>
       <c r="L22">
-        <v>0.2290789643103324</v>
+        <v>0.2143448110729622</v>
       </c>
       <c r="M22">
-        <v>0.3535172816464538</v>
+        <v>0.2791633996231155</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.608941484192343</v>
+        <v>1.189051103595034</v>
       </c>
       <c r="C23">
-        <v>0.1244534210683668</v>
+        <v>0.05120197458670361</v>
       </c>
       <c r="D23">
-        <v>0.6858504315635798</v>
+        <v>0.4126294595663467</v>
       </c>
       <c r="E23">
-        <v>0.0665693782369523</v>
+        <v>0.08785669317097344</v>
       </c>
       <c r="F23">
-        <v>11.07147786963191</v>
+        <v>6.090513180697087</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.306540902840368</v>
+        <v>0.705749120307388</v>
       </c>
       <c r="L23">
-        <v>0.2214692672319671</v>
+        <v>0.2129298932229631</v>
       </c>
       <c r="M23">
-        <v>0.3400570371763934</v>
+        <v>0.2770056444772706</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.3639894904465</v>
+        <v>1.152256039308185</v>
       </c>
       <c r="C24">
-        <v>0.1080015324258099</v>
+        <v>0.04748664263112801</v>
       </c>
       <c r="D24">
-        <v>0.6096603173730273</v>
+        <v>0.3900455902670785</v>
       </c>
       <c r="E24">
-        <v>0.06111113597206952</v>
+        <v>0.0865575685737543</v>
       </c>
       <c r="F24">
-        <v>9.630312267181466</v>
+        <v>5.693597949439209</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.091494747391209</v>
+        <v>0.672666277722243</v>
       </c>
       <c r="L24">
-        <v>0.1935682034256843</v>
+        <v>0.2077490700347084</v>
       </c>
       <c r="M24">
-        <v>0.2909027082706857</v>
+        <v>0.2691805821507174</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.116182899973523</v>
+        <v>1.116275059608654</v>
       </c>
       <c r="C25">
-        <v>0.09138339454910493</v>
+        <v>0.04338883934056526</v>
       </c>
       <c r="D25">
-        <v>0.5303436266840578</v>
+        <v>0.3653962687009908</v>
       </c>
       <c r="E25">
-        <v>0.05548954208457957</v>
+        <v>0.08519964973832117</v>
       </c>
       <c r="F25">
-        <v>8.134783100174303</v>
+        <v>5.266750071844967</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8742382264797186</v>
+        <v>0.6397619673392967</v>
       </c>
       <c r="L25">
-        <v>0.1650804961418686</v>
+        <v>0.2025399877624849</v>
       </c>
       <c r="M25">
-        <v>0.241044320724626</v>
+        <v>0.2614784560245944</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_234/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_234/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.092944669800971</v>
+        <v>0.9444821366136011</v>
       </c>
       <c r="C2">
-        <v>0.0402866848161807</v>
+        <v>0.07977644870175382</v>
       </c>
       <c r="D2">
-        <v>0.3469786856266808</v>
+        <v>0.4735906745766698</v>
       </c>
       <c r="E2">
-        <v>0.08423663855832686</v>
+        <v>0.05152563420930356</v>
       </c>
       <c r="F2">
-        <v>4.953339856236369</v>
+        <v>7.069974470791323</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6178926860127945</v>
+        <v>0.7237197111201965</v>
       </c>
       <c r="L2">
-        <v>0.1990288344996003</v>
+        <v>0.1451794468710688</v>
       </c>
       <c r="M2">
-        <v>0.2564379338706004</v>
+        <v>0.2064220476167726</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.079093574167189</v>
+        <v>0.8334208157012597</v>
       </c>
       <c r="C3">
-        <v>0.03812766800084333</v>
+        <v>0.07216189710558041</v>
       </c>
       <c r="D3">
-        <v>0.3343197433335092</v>
+        <v>0.4358096669658096</v>
       </c>
       <c r="E3">
-        <v>0.08360673564671295</v>
+        <v>0.04892589515789858</v>
       </c>
       <c r="F3">
-        <v>4.74137407832751</v>
+        <v>6.364921411107616</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6045266538105096</v>
+        <v>0.6262660996030434</v>
       </c>
       <c r="L3">
-        <v>0.196850744342612</v>
+        <v>0.1322318740273687</v>
       </c>
       <c r="M3">
-        <v>0.2534131723321948</v>
+        <v>0.1839951897434204</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.071552234929982</v>
+        <v>0.7674395442429045</v>
       </c>
       <c r="C4">
-        <v>0.03677288371079257</v>
+        <v>0.06757070941958077</v>
       </c>
       <c r="D4">
-        <v>0.32645662235484</v>
+        <v>0.4128475080818248</v>
       </c>
       <c r="E4">
-        <v>0.08323112675766886</v>
+        <v>0.04736582689842628</v>
       </c>
       <c r="F4">
-        <v>4.611407365189393</v>
+        <v>5.938434064756223</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5970327252603767</v>
+        <v>0.5682923012487322</v>
       </c>
       <c r="L4">
-        <v>0.1956125514581331</v>
+        <v>0.1245104508773451</v>
       </c>
       <c r="M4">
-        <v>0.2517483755631105</v>
+        <v>0.1706601372100884</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.068720938830609</v>
+        <v>0.7410533584456687</v>
       </c>
       <c r="C5">
-        <v>0.03621330098894049</v>
+        <v>0.06571559724822507</v>
       </c>
       <c r="D5">
-        <v>0.3232291781499015</v>
+        <v>0.4035359465181614</v>
       </c>
       <c r="E5">
-        <v>0.08308086286111305</v>
+        <v>0.04673830525241485</v>
       </c>
       <c r="F5">
-        <v>4.558486500939694</v>
+        <v>5.76601475555168</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5941575649632682</v>
+        <v>0.5450846460607437</v>
       </c>
       <c r="L5">
-        <v>0.1951329034367504</v>
+        <v>0.1214162888901669</v>
       </c>
       <c r="M5">
-        <v>0.251118292323973</v>
+        <v>0.1653251685386365</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.068265401658692</v>
+        <v>0.7367007567584665</v>
       </c>
       <c r="C6">
-        <v>0.03611992494107596</v>
+        <v>0.06540836690845353</v>
       </c>
       <c r="D6">
-        <v>0.3226918529031906</v>
+        <v>0.4019921541430733</v>
       </c>
       <c r="E6">
-        <v>0.08305608061396974</v>
+        <v>0.04663457778579705</v>
       </c>
       <c r="F6">
-        <v>4.549701432159594</v>
+        <v>5.737461331113565</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5936909216756447</v>
+        <v>0.541254808708274</v>
       </c>
       <c r="L6">
-        <v>0.1950547634399413</v>
+        <v>0.1209055290921768</v>
       </c>
       <c r="M6">
-        <v>0.251016585379805</v>
+        <v>0.1644450076308317</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.071513072278407</v>
+        <v>0.7670817277894173</v>
       </c>
       <c r="C7">
-        <v>0.03676536756045223</v>
+        <v>0.06754563331141838</v>
       </c>
       <c r="D7">
-        <v>0.3264131902131879</v>
+        <v>0.4127217611467131</v>
       </c>
       <c r="E7">
-        <v>0.08322908891594061</v>
+        <v>0.04735733175532353</v>
       </c>
       <c r="F7">
-        <v>4.610693492545323</v>
+        <v>5.936103477433988</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5969932271548117</v>
+        <v>0.5679776903853195</v>
       </c>
       <c r="L7">
-        <v>0.1956059818456026</v>
+        <v>0.1244685162311683</v>
       </c>
       <c r="M7">
-        <v>0.2517396823996449</v>
+        <v>0.1705877993217655</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.087968648099263</v>
+        <v>0.9056951906872541</v>
       </c>
       <c r="C8">
-        <v>0.0395482009699748</v>
+        <v>0.07713011046237384</v>
       </c>
       <c r="D8">
-        <v>0.3426324133937584</v>
+        <v>0.4605064058552131</v>
       </c>
       <c r="E8">
-        <v>0.08401712970679576</v>
+        <v>0.05062118176261343</v>
       </c>
       <c r="F8">
-        <v>4.880214031325607</v>
+        <v>6.825391632693226</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6131357622472962</v>
+        <v>0.6896986511137442</v>
       </c>
       <c r="L8">
-        <v>0.1982572402477984</v>
+        <v>0.1406645280846845</v>
       </c>
       <c r="M8">
-        <v>0.2553550265628353</v>
+        <v>0.1985925075369117</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.127902360285674</v>
+        <v>1.197780448753946</v>
       </c>
       <c r="C9">
-        <v>0.04478189957499268</v>
+        <v>0.09686286673314015</v>
       </c>
       <c r="D9">
-        <v>0.3737398177966611</v>
+        <v>0.5567553855560448</v>
       </c>
       <c r="E9">
-        <v>0.08565131579503671</v>
+        <v>0.0573526734623524</v>
       </c>
       <c r="F9">
-        <v>5.41038330910456</v>
+        <v>8.632024872508907</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6504773667712129</v>
+        <v>0.9457586413928709</v>
       </c>
       <c r="L9">
-        <v>0.2042441855646331</v>
+        <v>0.1744907864398186</v>
       </c>
       <c r="M9">
-        <v>0.2639746959276508</v>
+        <v>0.2574761451498624</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.161949957525053</v>
+        <v>1.429006793989259</v>
       </c>
       <c r="C10">
-        <v>0.04850182590726604</v>
+        <v>0.1123600482724214</v>
       </c>
       <c r="D10">
-        <v>0.3961972016212201</v>
+        <v>0.6300717533874263</v>
       </c>
       <c r="E10">
-        <v>0.08690674287358391</v>
+        <v>0.06256890031004758</v>
       </c>
       <c r="F10">
-        <v>5.80121779326754</v>
+        <v>10.01608193629244</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6814253061023408</v>
+        <v>1.148537242016289</v>
       </c>
       <c r="L10">
-        <v>0.2091253294511972</v>
+        <v>0.2009985038770168</v>
       </c>
       <c r="M10">
-        <v>0.2712461558002559</v>
+        <v>0.303962287933949</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.178469861633317</v>
+        <v>1.538918830102602</v>
       </c>
       <c r="C11">
-        <v>0.05016929332256126</v>
+        <v>0.119740094215274</v>
       </c>
       <c r="D11">
-        <v>0.4063336508876887</v>
+        <v>0.6642602932644763</v>
       </c>
       <c r="E11">
-        <v>0.08748991550168483</v>
+        <v>0.06501831614910358</v>
       </c>
       <c r="F11">
-        <v>5.979376596327995</v>
+        <v>10.66279468019098</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6962777568209333</v>
+        <v>1.245026103321749</v>
       </c>
       <c r="L11">
-        <v>0.2114512260868509</v>
+        <v>0.2135189503080852</v>
       </c>
       <c r="M11">
-        <v>0.2747593367263761</v>
+        <v>0.3260188494064096</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.184874437751745</v>
+        <v>1.581326690839859</v>
       </c>
       <c r="C12">
-        <v>0.05079735209854874</v>
+        <v>0.1225933491892164</v>
       </c>
       <c r="D12">
-        <v>0.4101610952700412</v>
+        <v>0.6773527804576815</v>
       </c>
       <c r="E12">
-        <v>0.08771249296683337</v>
+        <v>0.06595854144308433</v>
       </c>
       <c r="F12">
-        <v>6.046898424744995</v>
+        <v>10.91060244924972</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.702014095431025</v>
+        <v>1.282276992567887</v>
       </c>
       <c r="L12">
-        <v>0.2123471769291285</v>
+        <v>0.2183363218464507</v>
       </c>
       <c r="M12">
-        <v>0.27611931096353</v>
+        <v>0.3345220682190657</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.183488469195026</v>
+        <v>1.572156554125854</v>
       </c>
       <c r="C13">
-        <v>0.05066223556759297</v>
+        <v>0.1219760490569826</v>
       </c>
       <c r="D13">
-        <v>0.4093372694445065</v>
+        <v>0.6745261381796581</v>
       </c>
       <c r="E13">
-        <v>0.08766447931481025</v>
+        <v>0.06575545382116132</v>
       </c>
       <c r="F13">
-        <v>6.032353788764965</v>
+        <v>10.85709525502131</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7007736776196225</v>
+        <v>1.2742208657898</v>
       </c>
       <c r="L13">
-        <v>0.2121535421919418</v>
+        <v>0.2172952592482602</v>
       </c>
       <c r="M13">
-        <v>0.2758250980274966</v>
+        <v>0.3326836887775357</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.178993783802525</v>
+        <v>1.542391321019011</v>
       </c>
       <c r="C14">
-        <v>0.0502210306777755</v>
+        <v>0.119973589420816</v>
       </c>
       <c r="D14">
-        <v>0.4066487552218518</v>
+        <v>0.6653343339494882</v>
       </c>
       <c r="E14">
-        <v>0.08750819211957861</v>
+        <v>0.06509540441994588</v>
       </c>
       <c r="F14">
-        <v>5.98493049151233</v>
+        <v>10.68312081122059</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6967474392267832</v>
+        <v>1.248075835819492</v>
       </c>
       <c r="L14">
-        <v>0.2115246320540081</v>
+        <v>0.2139136919299034</v>
       </c>
       <c r="M14">
-        <v>0.2748706287570002</v>
+        <v>0.3267152658926165</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.176260059253792</v>
+        <v>1.524265115315501</v>
       </c>
       <c r="C15">
-        <v>0.04995034589655489</v>
+        <v>0.1187550131788839</v>
       </c>
       <c r="D15">
-        <v>0.4050005416535214</v>
+        <v>0.6597239269598276</v>
       </c>
       <c r="E15">
-        <v>0.08741268884481102</v>
+        <v>0.06469281062932808</v>
       </c>
       <c r="F15">
-        <v>5.955889898372504</v>
+        <v>10.57695009145618</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6942958644280566</v>
+        <v>1.232157342138976</v>
       </c>
       <c r="L15">
-        <v>0.2111413845585872</v>
+        <v>0.2118526116623372</v>
       </c>
       <c r="M15">
-        <v>0.2742898471099053</v>
+        <v>0.3230797248950807</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.160891143136894</v>
+        <v>1.421927699592061</v>
       </c>
       <c r="C16">
-        <v>0.04839237069239033</v>
+        <v>0.1118853028493945</v>
       </c>
       <c r="D16">
-        <v>0.3955331969745259</v>
+        <v>0.6278564104469524</v>
       </c>
       <c r="E16">
-        <v>0.08686887466292248</v>
+        <v>0.06241050389851566</v>
       </c>
       <c r="F16">
-        <v>5.789582431684863</v>
+        <v>9.974199192907975</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6804703016709368</v>
+        <v>1.142325298964437</v>
       </c>
       <c r="L16">
-        <v>0.2089754502136429</v>
+        <v>0.2001903615654612</v>
       </c>
       <c r="M16">
-        <v>0.2710207001351534</v>
+        <v>0.3025408004626513</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.15172736333048</v>
+        <v>1.360429113468058</v>
       </c>
       <c r="C17">
-        <v>0.04743039547035721</v>
+        <v>0.1077629483070126</v>
       </c>
       <c r="D17">
-        <v>0.3897052218728732</v>
+        <v>0.6085382753492183</v>
       </c>
       <c r="E17">
-        <v>0.08653835899190376</v>
+        <v>0.06103111233222869</v>
       </c>
       <c r="F17">
-        <v>5.687655025184938</v>
+        <v>9.609114571018978</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6721875383947236</v>
+        <v>1.08837172418319</v>
       </c>
       <c r="L17">
-        <v>0.2076737405945295</v>
+        <v>0.193160796936823</v>
       </c>
       <c r="M17">
-        <v>0.2690678362850321</v>
+        <v>0.2901872969739685</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.146553655252035</v>
+        <v>1.325494390960898</v>
       </c>
       <c r="C18">
-        <v>0.04687475252167417</v>
+        <v>0.1054222151418287</v>
       </c>
       <c r="D18">
-        <v>0.3863456135825771</v>
+        <v>0.5975040131873186</v>
       </c>
       <c r="E18">
-        <v>0.08634939103524708</v>
+        <v>0.06024481352676148</v>
       </c>
       <c r="F18">
-        <v>5.629063288590061</v>
+        <v>9.400706575926677</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6674963274999186</v>
+        <v>1.057731605319333</v>
       </c>
       <c r="L18">
-        <v>0.2069349547281831</v>
+        <v>0.1891604073306183</v>
       </c>
       <c r="M18">
-        <v>0.2679639249529586</v>
+        <v>0.2831661740988167</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.144818580395906</v>
+        <v>1.313738230905841</v>
       </c>
       <c r="C19">
-        <v>0.04668621386225169</v>
+        <v>0.1046345814051861</v>
       </c>
       <c r="D19">
-        <v>0.3852068049269093</v>
+        <v>0.5937804983665131</v>
       </c>
       <c r="E19">
-        <v>0.0862856046287046</v>
+        <v>0.05997975636104691</v>
       </c>
       <c r="F19">
-        <v>5.609230879382153</v>
+        <v>9.330401544023488</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6659204483466965</v>
+        <v>1.047421913845795</v>
       </c>
       <c r="L19">
-        <v>0.2066865181756441</v>
+        <v>0.1878130241045142</v>
       </c>
       <c r="M19">
-        <v>0.2675934761639311</v>
+        <v>0.2808028504588265</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.152692814740817</v>
+        <v>1.366929720115905</v>
       </c>
       <c r="C20">
-        <v>0.04753304025356897</v>
+        <v>0.1081985651184993</v>
       </c>
       <c r="D20">
-        <v>0.3903263940486568</v>
+        <v>0.6105865767914054</v>
       </c>
       <c r="E20">
-        <v>0.08657342533820866</v>
+        <v>0.06117720556802908</v>
       </c>
       <c r="F20">
-        <v>5.698501799924259</v>
+        <v>9.647811933829558</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6730617113647099</v>
+        <v>1.094073849812474</v>
       </c>
       <c r="L20">
-        <v>0.2078112826488052</v>
+        <v>0.1939046069004604</v>
       </c>
       <c r="M20">
-        <v>0.2692737214271261</v>
+        <v>0.2914934884951492</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.180309937950057</v>
+        <v>1.55111181841059</v>
       </c>
       <c r="C21">
-        <v>0.05035071337431418</v>
+        <v>0.1205600734308589</v>
       </c>
       <c r="D21">
-        <v>0.4074387323855149</v>
+        <v>0.6680300045522074</v>
       </c>
       <c r="E21">
-        <v>0.08755405010843731</v>
+        <v>0.06528891818399885</v>
       </c>
       <c r="F21">
-        <v>5.998858283204527</v>
+        <v>10.73413839160975</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6979269964947719</v>
+        <v>1.25573503590843</v>
       </c>
       <c r="L21">
-        <v>0.2117089459261621</v>
+        <v>0.2149047896558471</v>
       </c>
       <c r="M21">
-        <v>0.2751501752986059</v>
+        <v>0.3284640681590716</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.199227172909929</v>
+        <v>1.676130945316743</v>
       </c>
       <c r="C22">
-        <v>0.05217264008339839</v>
+        <v>0.1289869697863537</v>
       </c>
       <c r="D22">
-        <v>0.4185586659220064</v>
+        <v>0.7064382682387134</v>
       </c>
       <c r="E22">
-        <v>0.0882051058079476</v>
+        <v>0.06805104191890265</v>
       </c>
       <c r="F22">
-        <v>6.195492625782776</v>
+        <v>11.46134250869358</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7148312888898829</v>
+        <v>1.365602263954713</v>
       </c>
       <c r="L22">
-        <v>0.2143448110729622</v>
+        <v>0.2290789643104318</v>
       </c>
       <c r="M22">
-        <v>0.2791633996231155</v>
+        <v>0.353517281646468</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.189051103595034</v>
+        <v>1.608941484192542</v>
       </c>
       <c r="C23">
-        <v>0.05120197458670361</v>
+        <v>0.1244534210679475</v>
       </c>
       <c r="D23">
-        <v>0.4126294595663467</v>
+        <v>0.6858504315634377</v>
       </c>
       <c r="E23">
-        <v>0.08785669317097344</v>
+        <v>0.0665693782369452</v>
       </c>
       <c r="F23">
-        <v>6.090513180697087</v>
+        <v>11.07147786963179</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.705749120307388</v>
+        <v>1.306540902840396</v>
       </c>
       <c r="L23">
-        <v>0.2129298932229631</v>
+        <v>0.2214692672320382</v>
       </c>
       <c r="M23">
-        <v>0.2770056444772706</v>
+        <v>0.3400570371763791</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.152256039308185</v>
+        <v>1.363989490446613</v>
       </c>
       <c r="C24">
-        <v>0.04748664263112801</v>
+        <v>0.1080015324257388</v>
       </c>
       <c r="D24">
-        <v>0.3900455902670785</v>
+        <v>0.6096603173734252</v>
       </c>
       <c r="E24">
-        <v>0.0865575685737543</v>
+        <v>0.06111113597202333</v>
       </c>
       <c r="F24">
-        <v>5.693597949439209</v>
+        <v>9.630312267181665</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.672666277722243</v>
+        <v>1.091494747391096</v>
       </c>
       <c r="L24">
-        <v>0.2077490700347084</v>
+        <v>0.1935682034256843</v>
       </c>
       <c r="M24">
-        <v>0.2691805821507174</v>
+        <v>0.2909027082706928</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.116275059608654</v>
+        <v>1.116182899973666</v>
       </c>
       <c r="C25">
-        <v>0.04338883934056526</v>
+        <v>0.09138339454947442</v>
       </c>
       <c r="D25">
-        <v>0.3653962687009908</v>
+        <v>0.5303436266842141</v>
       </c>
       <c r="E25">
-        <v>0.08519964973832117</v>
+        <v>0.05548954208447299</v>
       </c>
       <c r="F25">
-        <v>5.266750071844967</v>
+        <v>8.134783100174502</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6397619673392967</v>
+        <v>0.8742382264798891</v>
       </c>
       <c r="L25">
-        <v>0.2025399877624849</v>
+        <v>0.1650804961415062</v>
       </c>
       <c r="M25">
-        <v>0.2614784560245944</v>
+        <v>0.2410443207246189</v>
       </c>
       <c r="N25">
         <v>0</v>
